--- a/Jogos_do_Dia/2024-03-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -682,13 +682,13 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="K2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L2">
-        <v>4.1</v>
+        <v>4.23</v>
       </c>
       <c r="M2">
         <v>1.53</v>
@@ -709,10 +709,10 @@
         <v>2.57</v>
       </c>
       <c r="S2">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="T2">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="U2">
         <v>2.1</v>

--- a/Jogos_do_Dia/2024-03-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -682,13 +682,13 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="K2">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
       <c r="L2">
-        <v>4.23</v>
+        <v>3.69</v>
       </c>
       <c r="M2">
         <v>1.53</v>
@@ -709,10 +709,10 @@
         <v>2.57</v>
       </c>
       <c r="S2">
-        <v>2.27</v>
+        <v>2.26</v>
       </c>
       <c r="T2">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="U2">
         <v>2.1</v>
